--- a/medicine/Pharmacie/Injection_retard/Injection_retard.xlsx
+++ b/medicine/Pharmacie/Injection_retard/Injection_retard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une injection retard est une formulation injectable d'un médicament qui se libère lentement pour permettre une administration moins fréquente et / ou sans consentement.
 L'injection retard peut être réalisée en modifiant la molécule du médicament, en utilisant des promédicaments, ou la façon dont elle est administrée, comme dans le cas des huiles / lipides suspensifs. Les injections retard peuvent avoir une durée d'action d'un mois ou plus et sont utilisés principalement pour les neuroleptiques et les hormones. Ils sont généralement injectés dans le muscle.
@@ -512,10 +524,12 @@
           <t>Mécanisme d'absorption</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le médicament injecté est libéré lentement dans la circulation sanguine (grâce par exemple à des microsphères), et / ou est lentement métabolisé.
-Beaucoup sont dissous dans une huile organique, pour les rendre lipophiles en raison de l'ajout de groupes fonctionnels tel que le décanoate, pour diminuer leur métabolisation[1],[2].
+Beaucoup sont dissous dans une huile organique, pour les rendre lipophiles en raison de l'ajout de groupes fonctionnels tel que le décanoate, pour diminuer leur métabolisation,.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les premières injections à action prolongée (retard) furent les neuroleptiques fluphénazine et halopéridol[3]. Le concept d'injection retard est apparu avant 1950 et était à l'origine utilisé pour décrire des injections d'antibiotiques qui duraient plus longtemps pour permettre une administration moins fréquente[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premières injections à action prolongée (retard) furent les neuroleptiques fluphénazine et halopéridol. Le concept d'injection retard est apparu avant 1950 et était à l'origine utilisé pour décrire des injections d'antibiotiques qui duraient plus longtemps pour permettre une administration moins fréquente.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Pharmacocinétique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le plus souvent, les injections retard sont conçues pour avoir une durée d'action de 2 à 4 semaines[5]. L'administration répétée d'injections retard peut entraîner une demi-vie supérieure à un mois (comme dans certaines préparations de fluphénazine ), mais cela peut être variable selon les patients[6].
-Les injections de dépôt hormonal d'estradiol peuvent durer d'une semaine à plus d'un mois[7]. L'acétate de médroxyprogestérone est disponible sous forme d'injection retard qui est injectée une fois tous les trois mois pour fournir une contraception hormonale continue et se libère jusqu'à neuf mois après l'injection[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le plus souvent, les injections retard sont conçues pour avoir une durée d'action de 2 à 4 semaines. L'administration répétée d'injections retard peut entraîner une demi-vie supérieure à un mois (comme dans certaines préparations de fluphénazine ), mais cela peut être variable selon les patients.
+Les injections de dépôt hormonal d'estradiol peuvent durer d'une semaine à plus d'un mois. L'acétate de médroxyprogestérone est disponible sous forme d'injection retard qui est injectée une fois tous les trois mois pour fournir une contraception hormonale continue et se libère jusqu'à neuf mois après l'injection.
 </t>
         </is>
       </c>
@@ -607,10 +625,12 @@
           <t>Disponibilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des antipsychotiques typiques et atypiques[9], ainsi que des médicaments hormonaux et pour les addictions aux opioïdes sont disponibles en injection retard[10],[11],[12]. Longtemps disponibles en France, les injections retard d’estradiol ne le sont cependant plus depuis le début des années 2000[13],[14],[15].
-L'insuline peut également être considérée comme une injection retard selon la formulation. L'insuline glargine, par exemple, est conçue pour précipiter après l'injection afin qu'elle puisse être lentement absorbée par le corps sur une plus longue période que ne le serait l'insuline ordinaire[16]. Les injections de dépôt d'insulines ont été étudiées pour mieux reproduire le taux basal naturel de production d'insuline du corps, et qui peuvent être activées par la lumière pour contrôler la libération d'insuline du dépôt injecté[17].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des antipsychotiques typiques et atypiques, ainsi que des médicaments hormonaux et pour les addictions aux opioïdes sont disponibles en injection retard. Longtemps disponibles en France, les injections retard d’estradiol ne le sont cependant plus depuis le début des années 2000.
+L'insuline peut également être considérée comme une injection retard selon la formulation. L'insuline glargine, par exemple, est conçue pour précipiter après l'injection afin qu'elle puisse être lentement absorbée par le corps sur une plus longue période que ne le serait l'insuline ordinaire. Les injections de dépôt d'insulines ont été étudiées pour mieux reproduire le taux basal naturel de production d'insuline du corps, et qui peuvent être activées par la lumière pour contrôler la libération d'insuline du dépôt injecté.
 </t>
         </is>
       </c>
@@ -639,9 +659,11 @@
           <t>Bioéthique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certains médecins et patients s'opposent à l'utilisation d'une injection retard coercitivement[12]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains médecins et patients s'opposent à l'utilisation d'une injection retard coercitivement
 ↑ (en) Kennedy, « When and how to use long-acting injectable antipsychotics », Current Psychiatry, vol. 11, no 8,‎ 2012, p. 40–43 (lire en ligne)
 ↑ (en) Carpenter et Wong, « Long-acting injectable antipsychotics: What to do about missed doses », Current Psychiatry, vol. 17, no 7,‎ 2018, p. 10–12, 14–19, 56 (lire en ligne)
 ↑ (en) Kennedy, « When and how to use long-acting injectable antipsychotics », Current Psychiatry, vol. 11, no 8,‎ 2012, p. 40–43 (lire en ligne),
